--- a/static/assets/Исходники/Текст/Введение/Reverses.xlsx
+++ b/static/assets/Исходники/Текст/Введение/Reverses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Приветствие базы" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Приветствие базы</t>
   </si>
@@ -168,6 +168,36 @@
   <si>
     <t xml:space="preserve">1) Ты – часть социума Reverses. И мы, единогласно избрали тебя, как одного из великого множества, кто будет изменять этот мир. И твой долгий путь, начнётся здесь. Сейчас, с этой %BaseName%. В знак нашего доверия, вручая в твоё распоряжение данную мобильную платформу. </t>
   </si>
+  <si>
+    <t>Принять Квест</t>
+  </si>
+  <si>
+    <t>Игрок принимает квест</t>
+  </si>
+  <si>
+    <t>Ответы игрока, при получении квеста</t>
+  </si>
+  <si>
+    <t>Ответы базы на «принятие» или «непринятие» квеста игроком</t>
+  </si>
+  <si>
+    <t>Не принимать квест</t>
+  </si>
+  <si>
+    <t>Игрок отказывается принимать квест</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я оправдаю возложенное на меня доверие. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Думаю… в следующий раз. Сейчас, у меня есть дела и поважнее. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мы и не сомневались! Творя роль – неоценима. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какая досада. Такой потенциал… </t>
+  </si>
 </sst>
 </file>
 
@@ -283,21 +313,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
@@ -306,17 +330,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1290,14 +1327,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1306,8 +1343,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6219265" y="3372971"/>
-          <a:ext cx="1024217" cy="0"/>
+          <a:off x="6174441" y="3171266"/>
+          <a:ext cx="1019735" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1335,26 +1372,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>493058</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Прямая со стрелкой 2"/>
+        <xdr:cNvPr id="6" name="Прямая со стрелкой 5"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12270441" y="3384177"/>
-          <a:ext cx="1024217" cy="0"/>
+          <a:off x="12460941" y="3384177"/>
+          <a:ext cx="1033742" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1382,26 +1419,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>504264</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая со стрелкой 3"/>
+        <xdr:cNvPr id="7" name="Прямая со стрелкой 6"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18377647" y="3429000"/>
-          <a:ext cx="1024217" cy="0"/>
+          <a:off x="18663397" y="3429000"/>
+          <a:ext cx="1033742" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1429,26 +1466,461 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>280147</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Прямая со стрелкой 4"/>
+        <xdr:cNvPr id="8" name="Прямая со стрелкой 7"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11510682" y="4515971"/>
-          <a:ext cx="351865" cy="1333500"/>
+          <a:off x="11682132" y="4515971"/>
+          <a:ext cx="361390" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Прямая со стрелкой 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10688171" y="2801471"/>
+          <a:ext cx="894230" cy="201705"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Прямая со стрелкой 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10587318" y="3731559"/>
+          <a:ext cx="968187" cy="212912"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Прямая со стрелкой 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15262411" y="2767853"/>
+          <a:ext cx="710454" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Прямая со стрелкой 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15240000" y="3630706"/>
+          <a:ext cx="755276" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Прямая со стрелкой 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19222571" y="3686735"/>
+          <a:ext cx="867334" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Прямая со стрелкой 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19507200" y="2801471"/>
+          <a:ext cx="609600" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Прямая со стрелкой 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15284824" y="4056529"/>
+          <a:ext cx="4760258" cy="44824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Прямая со стрелкой 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15273618" y="2790265"/>
+          <a:ext cx="4793876" cy="22411"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Прямая со стрелкой 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23689235" y="2879912"/>
+          <a:ext cx="1714500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1766,300 +2238,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:BU54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="AS1" workbookViewId="0">
       <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="AB8" s="3" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="AB8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
     </row>
     <row r="9" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
     </row>
     <row r="10" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="T10" s="2" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="T10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="BA10" s="8" t="s">
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="BA10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
-      <c r="BD10" s="8"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
     </row>
     <row r="11" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="9"/>
-      <c r="BC11" s="9"/>
-      <c r="BD11" s="9"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
     </row>
     <row r="12" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="AB12" s="5" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="AB12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
       <c r="AI12" s="1"/>
-      <c r="AJ12" s="6" t="s">
+      <c r="AJ12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
-      <c r="AR12" s="6" t="s">
+      <c r="AR12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
-      <c r="AZ12" s="6" t="s">
+      <c r="AZ12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="BA12" s="6"/>
-      <c r="BB12" s="6"/>
-      <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
       <c r="BF12" s="1"/>
       <c r="BG12" s="1"/>
-      <c r="BH12" s="6" t="s">
+      <c r="BH12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BI12" s="6"/>
-      <c r="BJ12" s="6"/>
-      <c r="BK12" s="6"/>
-      <c r="BL12" s="6"/>
-      <c r="BM12" s="6"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="4"/>
+      <c r="BL12" s="4"/>
+      <c r="BM12" s="4"/>
       <c r="BN12" s="1"/>
       <c r="BO12" s="1"/>
-      <c r="BP12" s="7" t="s">
+      <c r="BP12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BQ12" s="7"/>
-      <c r="BR12" s="7"/>
-      <c r="BS12" s="7"/>
-      <c r="BT12" s="7"/>
-      <c r="BU12" s="7"/>
+      <c r="BQ12" s="5"/>
+      <c r="BR12" s="5"/>
+      <c r="BS12" s="5"/>
+      <c r="BT12" s="5"/>
+      <c r="BU12" s="5"/>
     </row>
     <row r="13" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
       <c r="AI13" s="1"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
-      <c r="AZ13" s="6"/>
-      <c r="BA13" s="6"/>
-      <c r="BB13" s="6"/>
-      <c r="BC13" s="6"/>
-      <c r="BD13" s="6"/>
-      <c r="BE13" s="6"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
       <c r="BF13" s="1"/>
       <c r="BG13" s="1"/>
-      <c r="BH13" s="6"/>
-      <c r="BI13" s="6"/>
-      <c r="BJ13" s="6"/>
-      <c r="BK13" s="6"/>
-      <c r="BL13" s="6"/>
-      <c r="BM13" s="6"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
       <c r="BN13" s="1"/>
       <c r="BO13" s="1"/>
-      <c r="BP13" s="7"/>
-      <c r="BQ13" s="7"/>
-      <c r="BR13" s="7"/>
-      <c r="BS13" s="7"/>
-      <c r="BT13" s="7"/>
-      <c r="BU13" s="7"/>
+      <c r="BP13" s="5"/>
+      <c r="BQ13" s="5"/>
+      <c r="BR13" s="5"/>
+      <c r="BS13" s="5"/>
+      <c r="BT13" s="5"/>
+      <c r="BU13" s="5"/>
     </row>
     <row r="14" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="M14" s="3" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="M14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
       <c r="AI14" s="1"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="6"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="6"/>
-      <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
       <c r="BF14" s="1"/>
       <c r="BG14" s="1"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="6"/>
-      <c r="BJ14" s="6"/>
-      <c r="BK14" s="6"/>
-      <c r="BL14" s="6"/>
-      <c r="BM14" s="6"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
       <c r="BN14" s="1"/>
       <c r="BO14" s="1"/>
-      <c r="BP14" s="7"/>
-      <c r="BQ14" s="7"/>
-      <c r="BR14" s="7"/>
-      <c r="BS14" s="7"/>
-      <c r="BT14" s="7"/>
-      <c r="BU14" s="7"/>
+      <c r="BP14" s="5"/>
+      <c r="BQ14" s="5"/>
+      <c r="BR14" s="5"/>
+      <c r="BS14" s="5"/>
+      <c r="BT14" s="5"/>
+      <c r="BU14" s="5"/>
     </row>
     <row r="15" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -2101,36 +2573,36 @@
       <c r="BU15" s="1"/>
     </row>
     <row r="16" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="T16" s="2" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="T16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="AB16" s="5" t="s">
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="AB16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -2172,26 +2644,26 @@
       <c r="BU16" s="1"/>
     </row>
     <row r="17" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -2209,14 +2681,14 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
-      <c r="AZ17" s="6" t="s">
+      <c r="AZ17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="BA17" s="6"/>
-      <c r="BB17" s="6"/>
-      <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
-      <c r="BE17" s="6"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
       <c r="BF17" s="1"/>
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
@@ -2235,26 +2707,26 @@
       <c r="BU17" s="1"/>
     </row>
     <row r="18" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -2272,12 +2744,12 @@
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
       <c r="BF18" s="1"/>
       <c r="BG18" s="1"/>
       <c r="BH18" s="1"/>
@@ -2296,14 +2768,14 @@
       <c r="BU18" s="1"/>
     </row>
     <row r="19" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -2321,12 +2793,12 @@
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
       <c r="BF19" s="1"/>
       <c r="BG19" s="1"/>
       <c r="BH19" s="1"/>
@@ -2345,14 +2817,14 @@
       <c r="BU19" s="1"/>
     </row>
     <row r="20" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -2394,24 +2866,24 @@
       <c r="BU20" s="1"/>
     </row>
     <row r="21" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="T21" s="5" t="s">
+      <c r="T21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="5" t="s">
+      <c r="AB21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -2453,20 +2925,20 @@
       <c r="BU21" s="1"/>
     </row>
     <row r="22" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -2484,14 +2956,14 @@
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1"/>
-      <c r="AZ22" s="6" t="s">
+      <c r="AZ22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BA22" s="6"/>
-      <c r="BB22" s="6"/>
-      <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
       <c r="BF22" s="1"/>
       <c r="BG22" s="1"/>
       <c r="BH22" s="1"/>
@@ -2510,20 +2982,20 @@
       <c r="BU22" s="1"/>
     </row>
     <row r="23" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -2541,12 +3013,12 @@
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="6"/>
-      <c r="BB23" s="6"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="6"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
       <c r="BF23" s="1"/>
       <c r="BG23" s="1"/>
       <c r="BH23" s="1"/>
@@ -2582,12 +3054,12 @@
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
-      <c r="AZ24" s="6"/>
-      <c r="BA24" s="6"/>
-      <c r="BB24" s="6"/>
-      <c r="BC24" s="6"/>
-      <c r="BD24" s="6"/>
-      <c r="BE24" s="6"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
       <c r="BF24" s="1"/>
       <c r="BG24" s="1"/>
       <c r="BH24" s="1"/>
@@ -2705,14 +3177,14 @@
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1"/>
-      <c r="AZ27" s="6" t="s">
+      <c r="AZ27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="BA27" s="6"/>
-      <c r="BB27" s="6"/>
-      <c r="BC27" s="6"/>
-      <c r="BD27" s="6"/>
-      <c r="BE27" s="6"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
       <c r="BF27" s="1"/>
       <c r="BG27" s="1"/>
       <c r="BH27" s="1"/>
@@ -2748,12 +3220,12 @@
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1"/>
-      <c r="AZ28" s="6"/>
-      <c r="BA28" s="6"/>
-      <c r="BB28" s="6"/>
-      <c r="BC28" s="6"/>
-      <c r="BD28" s="6"/>
-      <c r="BE28" s="6"/>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="4"/>
       <c r="BF28" s="1"/>
       <c r="BG28" s="1"/>
       <c r="BH28" s="1"/>
@@ -2789,12 +3261,12 @@
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
-      <c r="AZ29" s="6"/>
-      <c r="BA29" s="6"/>
-      <c r="BB29" s="6"/>
-      <c r="BC29" s="6"/>
-      <c r="BD29" s="6"/>
-      <c r="BE29" s="6"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
       <c r="BF29" s="1"/>
       <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
@@ -2912,14 +3384,14 @@
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1"/>
-      <c r="AZ32" s="6" t="s">
+      <c r="AZ32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="BA32" s="6"/>
-      <c r="BB32" s="6"/>
-      <c r="BC32" s="6"/>
-      <c r="BD32" s="6"/>
-      <c r="BE32" s="6"/>
+      <c r="BA32" s="4"/>
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="4"/>
       <c r="BF32" s="1"/>
       <c r="BG32" s="1"/>
       <c r="BH32" s="1"/>
@@ -2955,12 +3427,12 @@
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
       <c r="AY33" s="1"/>
-      <c r="AZ33" s="6"/>
-      <c r="BA33" s="6"/>
-      <c r="BB33" s="6"/>
-      <c r="BC33" s="6"/>
-      <c r="BD33" s="6"/>
-      <c r="BE33" s="6"/>
+      <c r="AZ33" s="4"/>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="4"/>
       <c r="BF33" s="1"/>
       <c r="BG33" s="1"/>
       <c r="BH33" s="1"/>
@@ -2996,12 +3468,12 @@
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
       <c r="AY34" s="1"/>
-      <c r="AZ34" s="6"/>
-      <c r="BA34" s="6"/>
-      <c r="BB34" s="6"/>
-      <c r="BC34" s="6"/>
-      <c r="BD34" s="6"/>
-      <c r="BE34" s="6"/>
+      <c r="AZ34" s="4"/>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4"/>
       <c r="BF34" s="1"/>
       <c r="BG34" s="1"/>
       <c r="BH34" s="1"/>
@@ -3119,14 +3591,14 @@
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
       <c r="AY37" s="1"/>
-      <c r="AZ37" s="6" t="s">
+      <c r="AZ37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BA37" s="6"/>
-      <c r="BB37" s="6"/>
-      <c r="BC37" s="6"/>
-      <c r="BD37" s="6"/>
-      <c r="BE37" s="6"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
       <c r="BF37" s="1"/>
       <c r="BG37" s="1"/>
       <c r="BH37" s="1"/>
@@ -3162,12 +3634,12 @@
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
-      <c r="AZ38" s="6"/>
-      <c r="BA38" s="6"/>
-      <c r="BB38" s="6"/>
-      <c r="BC38" s="6"/>
-      <c r="BD38" s="6"/>
-      <c r="BE38" s="6"/>
+      <c r="AZ38" s="4"/>
+      <c r="BA38" s="4"/>
+      <c r="BB38" s="4"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="4"/>
       <c r="BF38" s="1"/>
       <c r="BG38" s="1"/>
       <c r="BH38" s="1"/>
@@ -3203,12 +3675,12 @@
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1"/>
-      <c r="AZ39" s="6"/>
-      <c r="BA39" s="6"/>
-      <c r="BB39" s="6"/>
-      <c r="BC39" s="6"/>
-      <c r="BD39" s="6"/>
-      <c r="BE39" s="6"/>
+      <c r="AZ39" s="4"/>
+      <c r="BA39" s="4"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="4"/>
       <c r="BF39" s="1"/>
       <c r="BG39" s="1"/>
       <c r="BH39" s="1"/>
@@ -3326,14 +3798,14 @@
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1"/>
-      <c r="AZ42" s="6" t="s">
+      <c r="AZ42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA42" s="6"/>
-      <c r="BB42" s="6"/>
-      <c r="BC42" s="6"/>
-      <c r="BD42" s="6"/>
-      <c r="BE42" s="6"/>
+      <c r="BA42" s="4"/>
+      <c r="BB42" s="4"/>
+      <c r="BC42" s="4"/>
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="4"/>
       <c r="BF42" s="1"/>
       <c r="BG42" s="1"/>
       <c r="BH42" s="1"/>
@@ -3369,12 +3841,12 @@
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
       <c r="AY43" s="1"/>
-      <c r="AZ43" s="6"/>
-      <c r="BA43" s="6"/>
-      <c r="BB43" s="6"/>
-      <c r="BC43" s="6"/>
-      <c r="BD43" s="6"/>
-      <c r="BE43" s="6"/>
+      <c r="AZ43" s="4"/>
+      <c r="BA43" s="4"/>
+      <c r="BB43" s="4"/>
+      <c r="BC43" s="4"/>
+      <c r="BD43" s="4"/>
+      <c r="BE43" s="4"/>
       <c r="BF43" s="1"/>
       <c r="BG43" s="1"/>
       <c r="BH43" s="1"/>
@@ -3410,12 +3882,12 @@
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
       <c r="AY44" s="1"/>
-      <c r="AZ44" s="6"/>
-      <c r="BA44" s="6"/>
-      <c r="BB44" s="6"/>
-      <c r="BC44" s="6"/>
-      <c r="BD44" s="6"/>
-      <c r="BE44" s="6"/>
+      <c r="AZ44" s="4"/>
+      <c r="BA44" s="4"/>
+      <c r="BB44" s="4"/>
+      <c r="BC44" s="4"/>
+      <c r="BD44" s="4"/>
+      <c r="BE44" s="4"/>
       <c r="BF44" s="1"/>
       <c r="BG44" s="1"/>
       <c r="BH44" s="1"/>
@@ -3533,14 +4005,14 @@
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1"/>
-      <c r="AZ47" s="6" t="s">
+      <c r="AZ47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="BA47" s="6"/>
-      <c r="BB47" s="6"/>
-      <c r="BC47" s="6"/>
-      <c r="BD47" s="6"/>
-      <c r="BE47" s="6"/>
+      <c r="BA47" s="4"/>
+      <c r="BB47" s="4"/>
+      <c r="BC47" s="4"/>
+      <c r="BD47" s="4"/>
+      <c r="BE47" s="4"/>
       <c r="BF47" s="1"/>
       <c r="BG47" s="1"/>
       <c r="BH47" s="1"/>
@@ -3576,12 +4048,12 @@
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1"/>
-      <c r="AZ48" s="6"/>
-      <c r="BA48" s="6"/>
-      <c r="BB48" s="6"/>
-      <c r="BC48" s="6"/>
-      <c r="BD48" s="6"/>
-      <c r="BE48" s="6"/>
+      <c r="AZ48" s="4"/>
+      <c r="BA48" s="4"/>
+      <c r="BB48" s="4"/>
+      <c r="BC48" s="4"/>
+      <c r="BD48" s="4"/>
+      <c r="BE48" s="4"/>
       <c r="BF48" s="1"/>
       <c r="BG48" s="1"/>
       <c r="BH48" s="1"/>
@@ -3617,12 +4089,12 @@
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1"/>
-      <c r="AZ49" s="6"/>
-      <c r="BA49" s="6"/>
-      <c r="BB49" s="6"/>
-      <c r="BC49" s="6"/>
-      <c r="BD49" s="6"/>
-      <c r="BE49" s="6"/>
+      <c r="AZ49" s="4"/>
+      <c r="BA49" s="4"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="4"/>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="4"/>
       <c r="BF49" s="1"/>
       <c r="BG49" s="1"/>
       <c r="BH49" s="1"/>
@@ -3740,14 +4212,14 @@
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1"/>
-      <c r="AZ52" s="6" t="s">
+      <c r="AZ52" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BA52" s="6"/>
-      <c r="BB52" s="6"/>
-      <c r="BC52" s="6"/>
-      <c r="BD52" s="6"/>
-      <c r="BE52" s="6"/>
+      <c r="BA52" s="4"/>
+      <c r="BB52" s="4"/>
+      <c r="BC52" s="4"/>
+      <c r="BD52" s="4"/>
+      <c r="BE52" s="4"/>
       <c r="BF52" s="1"/>
       <c r="BG52" s="1"/>
       <c r="BH52" s="1"/>
@@ -3783,12 +4255,12 @@
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1"/>
-      <c r="AZ53" s="6"/>
-      <c r="BA53" s="6"/>
-      <c r="BB53" s="6"/>
-      <c r="BC53" s="6"/>
-      <c r="BD53" s="6"/>
-      <c r="BE53" s="6"/>
+      <c r="AZ53" s="4"/>
+      <c r="BA53" s="4"/>
+      <c r="BB53" s="4"/>
+      <c r="BC53" s="4"/>
+      <c r="BD53" s="4"/>
+      <c r="BE53" s="4"/>
       <c r="BF53" s="1"/>
       <c r="BG53" s="1"/>
       <c r="BH53" s="1"/>
@@ -3824,12 +4296,12 @@
       <c r="AW54" s="1"/>
       <c r="AX54" s="1"/>
       <c r="AY54" s="1"/>
-      <c r="AZ54" s="6"/>
-      <c r="BA54" s="6"/>
-      <c r="BB54" s="6"/>
-      <c r="BC54" s="6"/>
-      <c r="BD54" s="6"/>
-      <c r="BE54" s="6"/>
+      <c r="AZ54" s="4"/>
+      <c r="BA54" s="4"/>
+      <c r="BB54" s="4"/>
+      <c r="BC54" s="4"/>
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="4"/>
       <c r="BF54" s="1"/>
       <c r="BG54" s="1"/>
       <c r="BH54" s="1"/>
@@ -3849,11 +4321,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="BA10:BD11"/>
-    <mergeCell ref="AJ12:AO14"/>
-    <mergeCell ref="AR12:AW14"/>
-    <mergeCell ref="AZ12:BE14"/>
-    <mergeCell ref="AZ17:BE19"/>
+    <mergeCell ref="D8:I10"/>
+    <mergeCell ref="AB8:AG10"/>
+    <mergeCell ref="T10:Y12"/>
+    <mergeCell ref="C11:J20"/>
+    <mergeCell ref="AB12:AG14"/>
     <mergeCell ref="AZ47:BE49"/>
     <mergeCell ref="AZ52:BE54"/>
     <mergeCell ref="BH12:BM14"/>
@@ -3868,11 +4340,11 @@
     <mergeCell ref="AZ32:BE34"/>
     <mergeCell ref="AZ37:BE39"/>
     <mergeCell ref="AZ42:BE44"/>
-    <mergeCell ref="D8:I10"/>
-    <mergeCell ref="AB8:AG10"/>
-    <mergeCell ref="T10:Y12"/>
-    <mergeCell ref="C11:J20"/>
-    <mergeCell ref="AB12:AG14"/>
+    <mergeCell ref="BA10:BD11"/>
+    <mergeCell ref="AJ12:AO14"/>
+    <mergeCell ref="AR12:AW14"/>
+    <mergeCell ref="AZ12:BE14"/>
+    <mergeCell ref="AZ17:BE19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3881,588 +4353,1106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C11:AN44"/>
+  <dimension ref="C10:BR44"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AD31" sqref="AD31"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ32" sqref="AJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="11" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="D11" s="11" t="s">
+    <row r="10" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+    </row>
+    <row r="11" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="N11" s="11" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AR11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="X11" s="11" t="s">
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="BB11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AH11" s="11" t="s">
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="10"/>
+      <c r="BL11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-    </row>
-    <row r="12" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-    </row>
-    <row r="13" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-    </row>
-    <row r="14" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
+      <c r="BM11" s="10"/>
+      <c r="BN11" s="10"/>
+      <c r="BO11" s="10"/>
+      <c r="BP11" s="10"/>
+      <c r="BQ11" s="10"/>
+    </row>
+    <row r="12" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="1"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="10"/>
+      <c r="BE12" s="10"/>
+      <c r="BF12" s="10"/>
+      <c r="BG12" s="10"/>
+      <c r="BL12" s="10"/>
+      <c r="BM12" s="10"/>
+      <c r="BN12" s="10"/>
+      <c r="BO12" s="10"/>
+      <c r="BP12" s="10"/>
+      <c r="BQ12" s="10"/>
+    </row>
+    <row r="13" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="1"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="10"/>
+      <c r="BF13" s="10"/>
+      <c r="BG13" s="10"/>
+      <c r="BL13" s="10"/>
+      <c r="BM13" s="10"/>
+      <c r="BN13" s="10"/>
+      <c r="BO13" s="10"/>
+      <c r="BP13" s="10"/>
+      <c r="BQ13" s="10"/>
+    </row>
+    <row r="14" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="M14" s="4" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="12"/>
+      <c r="AQ14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="W14" s="4" t="s">
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="BA14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AG14" s="4" t="s">
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BK14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-    </row>
-    <row r="15" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-    </row>
-    <row r="16" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-    </row>
-    <row r="17" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-    </row>
-    <row r="18" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-    </row>
-    <row r="19" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-    </row>
-    <row r="20" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-    </row>
-    <row r="21" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-    </row>
-    <row r="22" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-    </row>
-    <row r="23" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-    </row>
-    <row r="32" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="Q32" s="10" t="s">
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+    </row>
+    <row r="15" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="12"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="9"/>
+      <c r="BQ15" s="9"/>
+      <c r="BR15" s="9"/>
+    </row>
+    <row r="16" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="M16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="12"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="9"/>
+      <c r="BK16" s="9"/>
+      <c r="BL16" s="9"/>
+      <c r="BM16" s="9"/>
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="9"/>
+      <c r="BP16" s="9"/>
+      <c r="BQ16" s="9"/>
+      <c r="BR16" s="9"/>
+    </row>
+    <row r="17" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="12"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="9"/>
+      <c r="BG17" s="9"/>
+      <c r="BH17" s="9"/>
+      <c r="BK17" s="9"/>
+      <c r="BL17" s="9"/>
+      <c r="BM17" s="9"/>
+      <c r="BN17" s="9"/>
+      <c r="BO17" s="9"/>
+      <c r="BP17" s="9"/>
+      <c r="BQ17" s="9"/>
+      <c r="BR17" s="9"/>
+    </row>
+    <row r="18" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="12"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
+      <c r="BF18" s="9"/>
+      <c r="BG18" s="9"/>
+      <c r="BH18" s="9"/>
+      <c r="BK18" s="9"/>
+      <c r="BL18" s="9"/>
+      <c r="BM18" s="9"/>
+      <c r="BN18" s="9"/>
+      <c r="BO18" s="9"/>
+      <c r="BP18" s="9"/>
+      <c r="BQ18" s="9"/>
+      <c r="BR18" s="9"/>
+    </row>
+    <row r="19" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="12"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="9"/>
+      <c r="BF19" s="9"/>
+      <c r="BG19" s="9"/>
+      <c r="BH19" s="9"/>
+      <c r="BK19" s="9"/>
+      <c r="BL19" s="9"/>
+      <c r="BM19" s="9"/>
+      <c r="BN19" s="9"/>
+      <c r="BO19" s="9"/>
+      <c r="BP19" s="9"/>
+      <c r="BQ19" s="9"/>
+      <c r="BR19" s="9"/>
+    </row>
+    <row r="20" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="12"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="9"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="9"/>
+      <c r="BM20" s="9"/>
+      <c r="BN20" s="9"/>
+      <c r="BO20" s="9"/>
+      <c r="BP20" s="9"/>
+      <c r="BQ20" s="9"/>
+      <c r="BR20" s="9"/>
+    </row>
+    <row r="21" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="12"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
+      <c r="BF21" s="9"/>
+      <c r="BG21" s="9"/>
+      <c r="BH21" s="9"/>
+      <c r="BK21" s="9"/>
+      <c r="BL21" s="9"/>
+      <c r="BM21" s="9"/>
+      <c r="BN21" s="9"/>
+      <c r="BO21" s="9"/>
+      <c r="BP21" s="9"/>
+      <c r="BQ21" s="9"/>
+      <c r="BR21" s="9"/>
+    </row>
+    <row r="22" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="12"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="9"/>
+      <c r="BH22" s="9"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="9"/>
+      <c r="BN22" s="9"/>
+      <c r="BO22" s="9"/>
+      <c r="BP22" s="9"/>
+      <c r="BQ22" s="9"/>
+      <c r="BR22" s="9"/>
+    </row>
+    <row r="23" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="12"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9"/>
+      <c r="BK23" s="9"/>
+      <c r="BL23" s="9"/>
+      <c r="BM23" s="9"/>
+      <c r="BN23" s="9"/>
+      <c r="BO23" s="9"/>
+      <c r="BP23" s="9"/>
+      <c r="BQ23" s="9"/>
+      <c r="BR23" s="9"/>
+    </row>
+    <row r="32" spans="3:70" x14ac:dyDescent="0.25">
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="AU32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-    </row>
-    <row r="33" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-    </row>
-    <row r="34" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-    </row>
-    <row r="35" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P35" s="4" t="s">
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="11"/>
+      <c r="AY32" s="11"/>
+      <c r="AZ32" s="11"/>
+    </row>
+    <row r="33" spans="16:53" x14ac:dyDescent="0.25">
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="11"/>
+    </row>
+    <row r="34" spans="16:53" x14ac:dyDescent="0.25">
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11"/>
+      <c r="AY34" s="11"/>
+      <c r="AZ34" s="11"/>
+    </row>
+    <row r="35" spans="16:53" x14ac:dyDescent="0.25">
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="AT35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-    </row>
-    <row r="36" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-    </row>
-    <row r="37" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-    </row>
-    <row r="38" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-    </row>
-    <row r="39" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-    </row>
-    <row r="40" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-    </row>
-    <row r="41" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-    </row>
-    <row r="42" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-    </row>
-    <row r="43" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-    </row>
-    <row r="44" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
+      <c r="AU35" s="9"/>
+      <c r="AV35" s="9"/>
+      <c r="AW35" s="9"/>
+      <c r="AX35" s="9"/>
+      <c r="AY35" s="9"/>
+      <c r="AZ35" s="9"/>
+      <c r="BA35" s="9"/>
+    </row>
+    <row r="36" spans="16:53" x14ac:dyDescent="0.25">
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="AT36" s="9"/>
+      <c r="AU36" s="9"/>
+      <c r="AV36" s="9"/>
+      <c r="AW36" s="9"/>
+      <c r="AX36" s="9"/>
+      <c r="AY36" s="9"/>
+      <c r="AZ36" s="9"/>
+      <c r="BA36" s="9"/>
+    </row>
+    <row r="37" spans="16:53" x14ac:dyDescent="0.25">
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="AT37" s="9"/>
+      <c r="AU37" s="9"/>
+      <c r="AV37" s="9"/>
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="9"/>
+      <c r="AY37" s="9"/>
+      <c r="AZ37" s="9"/>
+      <c r="BA37" s="9"/>
+    </row>
+    <row r="38" spans="16:53" x14ac:dyDescent="0.25">
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="AT38" s="9"/>
+      <c r="AU38" s="9"/>
+      <c r="AV38" s="9"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="9"/>
+      <c r="AZ38" s="9"/>
+      <c r="BA38" s="9"/>
+    </row>
+    <row r="39" spans="16:53" x14ac:dyDescent="0.25">
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="9"/>
+      <c r="AV39" s="9"/>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="9"/>
+      <c r="AY39" s="9"/>
+      <c r="AZ39" s="9"/>
+      <c r="BA39" s="9"/>
+    </row>
+    <row r="40" spans="16:53" x14ac:dyDescent="0.25">
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="AT40" s="9"/>
+      <c r="AU40" s="9"/>
+      <c r="AV40" s="9"/>
+      <c r="AW40" s="9"/>
+      <c r="AX40" s="9"/>
+      <c r="AY40" s="9"/>
+      <c r="AZ40" s="9"/>
+      <c r="BA40" s="9"/>
+    </row>
+    <row r="41" spans="16:53" x14ac:dyDescent="0.25">
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="AT41" s="9"/>
+      <c r="AU41" s="9"/>
+      <c r="AV41" s="9"/>
+      <c r="AW41" s="9"/>
+      <c r="AX41" s="9"/>
+      <c r="AY41" s="9"/>
+      <c r="AZ41" s="9"/>
+      <c r="BA41" s="9"/>
+    </row>
+    <row r="42" spans="16:53" x14ac:dyDescent="0.25">
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="AT42" s="9"/>
+      <c r="AU42" s="9"/>
+      <c r="AV42" s="9"/>
+      <c r="AW42" s="9"/>
+      <c r="AX42" s="9"/>
+      <c r="AY42" s="9"/>
+      <c r="AZ42" s="9"/>
+      <c r="BA42" s="9"/>
+    </row>
+    <row r="43" spans="16:53" x14ac:dyDescent="0.25">
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="AT43" s="9"/>
+      <c r="AU43" s="9"/>
+      <c r="AV43" s="9"/>
+      <c r="AW43" s="9"/>
+      <c r="AX43" s="9"/>
+      <c r="AY43" s="9"/>
+      <c r="AZ43" s="9"/>
+      <c r="BA43" s="9"/>
+    </row>
+    <row r="44" spans="16:53" x14ac:dyDescent="0.25">
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="AT44" s="9"/>
+      <c r="AU44" s="9"/>
+      <c r="AV44" s="9"/>
+      <c r="AW44" s="9"/>
+      <c r="AX44" s="9"/>
+      <c r="AY44" s="9"/>
+      <c r="AZ44" s="9"/>
+      <c r="BA44" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="AH11:AM13"/>
+  <mergeCells count="20">
+    <mergeCell ref="AU32:AZ34"/>
+    <mergeCell ref="AT35:BA44"/>
+    <mergeCell ref="U12:X13"/>
+    <mergeCell ref="AI12:AL13"/>
+    <mergeCell ref="T14:Y16"/>
+    <mergeCell ref="AH14:AM16"/>
+    <mergeCell ref="AA16:AF18"/>
+    <mergeCell ref="T19:Y21"/>
+    <mergeCell ref="AH19:AM21"/>
+    <mergeCell ref="U22:X23"/>
+    <mergeCell ref="AI22:AL23"/>
+    <mergeCell ref="AR11:AW13"/>
+    <mergeCell ref="BB11:BG13"/>
+    <mergeCell ref="BL11:BQ13"/>
+    <mergeCell ref="AQ14:AX23"/>
+    <mergeCell ref="BA14:BH23"/>
+    <mergeCell ref="BK14:BR23"/>
+    <mergeCell ref="D11:I13"/>
+    <mergeCell ref="M16:R18"/>
     <mergeCell ref="C14:J23"/>
-    <mergeCell ref="M14:T23"/>
-    <mergeCell ref="W14:AD23"/>
-    <mergeCell ref="AG14:AN23"/>
-    <mergeCell ref="Q32:V34"/>
-    <mergeCell ref="P35:W44"/>
-    <mergeCell ref="D11:I13"/>
-    <mergeCell ref="N11:S13"/>
-    <mergeCell ref="X11:AC13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
